--- a/Error Testing.xlsx
+++ b/Error Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanattfield/Desktop/PetMatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{229F2FCB-36BB-C146-B04F-AD524A965879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8F931-E7D2-6048-B1CB-431A9B692394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Planning &amp; Execution" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t xml:space="preserve">Any articles, templates, or information provided by Smartsheet on the website are for reference only. While we strive to keep the information up to date and correct, we make no representations or warranties of any kind, express or implied, about the completeness, accuracy, reliability, suitability, or availability with respect to the website or the information, articles, templates, or related graphics contained on the website. Any reliance you place on such information is therefore strictly at your own risk. </t>
   </si>
@@ -100,28 +100,55 @@
     <t>None</t>
   </si>
   <si>
-    <t>Check add on is added to cart if user enters correct input</t>
+    <t>Check GET /animals route returns all animals stored in the database</t>
   </si>
   <si>
-    <t>13.07.22</t>
+    <t>03.03.23</t>
   </si>
   <si>
-    <t>If user correctly enters add on name the item is added to cart</t>
+    <t>Backend testing - Check all animal routes perform as expected</t>
   </si>
   <si>
-    <t>Item succesfully added to cart and message is printed confirming cart addition.</t>
+    <t>If user correctly enters route (GET /animals), all animals added to the database are returned</t>
   </si>
   <si>
-    <t>Check product is not added to cart if input does not match to product name</t>
+    <t>All animals are returned as an array of objects, with all fields displaying correctly</t>
   </si>
   <si>
-    <t>If user incorreclty enters product name, a message is printed asking user to try typing the name again.</t>
+    <t>Check POST /animals route correctly adds and stores a new animal to the database</t>
   </si>
   <si>
-    <t>User is prompted to enter product again</t>
+    <t>If user correctly enters route (POST /animals) and all fields are correctly filled in, the animal will be stored in the database and a message will be returned saying "Animal successfully added"</t>
   </si>
   <si>
-    <t>Check Add on feature performs as expected (Menu option 3)</t>
+    <t>A message is returned saying "Animal successfully added" and new animal is stored in database</t>
+  </si>
+  <si>
+    <t>Check PATCH /animals route to ensure that any updates to animal fields are successfully saved in the database</t>
+  </si>
+  <si>
+    <t>If user correctly enters route (PATCH /animals) and anteres all required fields a message will be returned saying "Animal updated successfully" as well as the updated animal object.</t>
+  </si>
+  <si>
+    <t>A message is returned saying "Animal updated successfully updated" and the updated animal object is shown.</t>
+  </si>
+  <si>
+    <t>Check PATCH /animals route to see what happens when user doesn't enter all required data fields</t>
+  </si>
+  <si>
+    <t>If a user misses data fields that are required, a message will be returned saying "All data fields are required"</t>
+  </si>
+  <si>
+    <t>A message is returned saying "All data fields are required"</t>
+  </si>
+  <si>
+    <t>Check DELETE /animals route deletes animal</t>
+  </si>
+  <si>
+    <t>If user enters route (DELETE /animals) with existing animal id, a message will be returned saying "Animal successfully deleted"</t>
+  </si>
+  <si>
+    <t>A message is returned saying "Animal successfully deleted"</t>
   </si>
 </sst>
 </file>
@@ -825,8 +852,8 @@
   <dimension ref="A1:EZ896"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1034,7 +1061,7 @@
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="25" t="s">
@@ -1097,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>15</v>
@@ -1109,22 +1136,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:156" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:156" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="19">
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>15</v>
@@ -1133,35 +1160,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:156" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:156" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:156" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:156" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20"/>
+      <c r="B10" s="19">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:156" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="19">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:156" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
